--- a/biology/Zoologie/Conus_verdensis/Conus_verdensis.xlsx
+++ b/biology/Zoologie/Conus_verdensis/Conus_verdensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus verdensis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 13 mm et 23 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'océan Atlantique au large de la côte nord-ouest de l'île de Santiago, Cap-Vert. 
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est limitée à un seul site sur une île des îles du Cap-Vert, où la distribution est limitée à seulement 32 km de côte, sans aucune menace connue. Comme l'espèce est présente dans de multiples populations le long de la côte, avec de très faibles niveaux de perturbation par les activités de loisirs, l'espèce est actuellement considérée comme étant de préoccupation mineure. Cependant, si des plans d'infrastructures touristiques ou de développements portuaires se produisent dans l'aire de répartition, alors une évaluation de conservation sera nécessaire. Le volcan de Fogo qui est situé entre les deux îles au large desquelles on trouve cette espèce est le plus actif de l'archipel mais il est peu probable qu'il présente un risque pour cette espèce car il est distant de 65 km de l'aire de répartition (M. J. Tenorio comm. pers. 2011)[1].
 </t>
         </is>
       </c>
@@ -573,21 +587,132 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est limitée à un seul site sur une île des îles du Cap-Vert, où la distribution est limitée à seulement 32 km de côte, sans aucune menace connue. Comme l'espèce est présente dans de multiples populations le long de la côte, avec de très faibles niveaux de perturbation par les activités de loisirs, l'espèce est actuellement considérée comme étant de préoccupation mineure. Cependant, si des plans d'infrastructures touristiques ou de développements portuaires se produisent dans l'aire de répartition, alors une évaluation de conservation sera nécessaire. Le volcan de Fogo qui est situé entre les deux îles au large desquelles on trouve cette espèce est le plus actif de l'archipel mais il est peu probable qu'il présente un risque pour cette espèce car il est distant de 65 km de l'aire de répartition (M. J. Tenorio comm. pers. 2011).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_verdensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_verdensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus verdensis a été décrite pour la première fois en 1979 par le malacologiste portugais Herculano Trovão (d) dans « Amphitrite »[2],[3].
-Synonymes
-Africonus nelsontiagoi T. Cossignani &amp; Fiadeiro, 2014 · non accepté
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus verdensis a été décrite pour la première fois en 1979 par le malacologiste portugais Herculano Trovão (d) dans « Amphitrite »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_verdensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_verdensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Africonus nelsontiagoi T. Cossignani &amp; Fiadeiro, 2014 · non accepté
 Africonus verdensis (Trovão, 1979) · appellation alternative
 Africonus verdensis verdensis (Trovão, 1979) · non accepté
 Conus (Lautoconus) verdensis Trovão, 1979 · non accepté
-Conus verdensis verdensis Trovão, 1979 · non accepté
-Sous-espèces
-Conus verdensis furnae Rolán, 1990, accepté en tant que Conus furnae Rolán, 1990 (original rank)
+Conus verdensis verdensis Trovão, 1979 · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_verdensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_verdensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Conus verdensis furnae Rolán, 1990, accepté en tant que Conus furnae Rolán, 1990 (original rank)
 Conus verdensis verdensis Trovão, 1979, accepté en tant que Conus verdensis Trovão, 1979</t>
         </is>
       </c>
